--- a/storage/csv/loans/COMMODITY-LOAN.xlsx
+++ b/storage/csv/loans/COMMODITY-LOAN.xlsx
@@ -2412,10 +2412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA981"/>
+  <dimension ref="A1:AA983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -32499,6 +32499,64 @@
       <c r="Z981" s="31"/>
       <c r="AA981" s="31"/>
     </row>
+    <row r="982" ht="11.25" customHeight="1" spans="1:27">
+      <c r="A982" s="31"/>
+      <c r="B982" s="31"/>
+      <c r="C982" s="32"/>
+      <c r="D982" s="32"/>
+      <c r="E982" s="32"/>
+      <c r="F982" s="32"/>
+      <c r="G982" s="33"/>
+      <c r="H982" s="33"/>
+      <c r="I982" s="34"/>
+      <c r="J982" s="31"/>
+      <c r="K982" s="31"/>
+      <c r="L982" s="31"/>
+      <c r="M982" s="31"/>
+      <c r="N982" s="31"/>
+      <c r="O982" s="31"/>
+      <c r="P982" s="31"/>
+      <c r="Q982" s="31"/>
+      <c r="R982" s="31"/>
+      <c r="S982" s="31"/>
+      <c r="T982" s="31"/>
+      <c r="U982" s="31"/>
+      <c r="V982" s="31"/>
+      <c r="W982" s="31"/>
+      <c r="X982" s="31"/>
+      <c r="Y982" s="31"/>
+      <c r="Z982" s="31"/>
+      <c r="AA982" s="31"/>
+    </row>
+    <row r="983" ht="11.25" customHeight="1" spans="1:27">
+      <c r="A983" s="31"/>
+      <c r="B983" s="31"/>
+      <c r="C983" s="32"/>
+      <c r="D983" s="32"/>
+      <c r="E983" s="32"/>
+      <c r="F983" s="32"/>
+      <c r="G983" s="33"/>
+      <c r="H983" s="33"/>
+      <c r="I983" s="34"/>
+      <c r="J983" s="31"/>
+      <c r="K983" s="31"/>
+      <c r="L983" s="31"/>
+      <c r="M983" s="31"/>
+      <c r="N983" s="31"/>
+      <c r="O983" s="31"/>
+      <c r="P983" s="31"/>
+      <c r="Q983" s="31"/>
+      <c r="R983" s="31"/>
+      <c r="S983" s="31"/>
+      <c r="T983" s="31"/>
+      <c r="U983" s="31"/>
+      <c r="V983" s="31"/>
+      <c r="W983" s="31"/>
+      <c r="X983" s="31"/>
+      <c r="Y983" s="31"/>
+      <c r="Z983" s="31"/>
+      <c r="AA983" s="31"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
